--- a/stationarity_test/KLDivergenceTest/FeedbackLog/p6-faa-0ms.xlsx
+++ b/stationarity_test/KLDivergenceTest/FeedbackLog/p6-faa-0ms.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\imMens Learning\stationarity_test\KLDivergenceTest\FeedbackLog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanadsaha92/Desktop/Research_Experiments/imMens-Interactions/stationarity_test/KLDivergenceTest/FeedbackLog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D2A5D8-DA8D-40E5-8A8F-60DCFF9E6BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F90AC5-C099-5240-A61A-4D280C36E505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet(2)" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3 (2)" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet_3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgUJoRh9pekhth+g4pM3TA4RqRvgQ=="/>
     </ext>
@@ -886,16 +897,16 @@
       <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="109.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="109.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" customWidth="1"/>
-    <col min="9" max="27" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="4.83203125" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="27" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4414,874 +4425,874 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -5299,16 +5310,16 @@
       <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="109.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="109.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="4" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="28" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="10" max="28" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9223,874 +9234,874 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -10102,26 +10113,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K982"/>
+  <dimension ref="A1:J982"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="108" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="109.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="109.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="6" customWidth="1"/>
     <col min="7" max="7" width="19" style="6" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" customWidth="1"/>
-    <col min="11" max="28" width="17.28515625" customWidth="1"/>
+    <col min="10" max="27" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10143,9 +10153,8 @@
       <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -10162,14 +10171,14 @@
         <v>1</v>
       </c>
       <c r="F2" s="9">
-        <v>1.9965277777777776E-2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -10186,13 +10195,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="9">
-        <v>2.0277777777777777E-2</v>
+        <v>3.1250000000000028E-4</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -10209,13 +10218,13 @@
         <v>1</v>
       </c>
       <c r="F4" s="9">
-        <v>2.0914351851851851E-2</v>
+        <v>9.490740740740744E-4</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -10232,13 +10241,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="9">
-        <v>2.1087962962962965E-2</v>
+        <v>1.1226851851851884E-3</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -10255,13 +10264,13 @@
         <v>1</v>
       </c>
       <c r="F6" s="9">
-        <v>2.1134259259259259E-2</v>
+        <v>1.1689814814814826E-3</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -10278,13 +10287,13 @@
         <v>1</v>
       </c>
       <c r="F7" s="9">
-        <v>2.1655092592592594E-2</v>
+        <v>1.6898148148148176E-3</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -10301,14 +10310,14 @@
         <v>1</v>
       </c>
       <c r="F8" s="9">
-        <v>2.1840277777777778E-2</v>
+        <v>1.8750000000000017E-3</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -10325,13 +10334,13 @@
         <v>1</v>
       </c>
       <c r="F9" s="9">
-        <v>2.1874999999999999E-2</v>
+        <v>1.9097222222222224E-3</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -10348,13 +10357,13 @@
         <v>1</v>
       </c>
       <c r="F10" s="9">
-        <v>2.2048611111111113E-2</v>
+        <v>2.0833333333333363E-3</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -10371,14 +10380,13 @@
         <v>1</v>
       </c>
       <c r="F11" s="9">
-        <v>2.210648148148148E-2</v>
+        <v>2.1412037037037042E-3</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -10395,14 +10403,13 @@
         <v>1</v>
       </c>
       <c r="F12" s="9">
-        <v>2.2372685185185186E-2</v>
+        <v>2.4074074074074102E-3</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -10419,13 +10426,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="9">
-        <v>2.2534722222222223E-2</v>
+        <v>2.5694444444444471E-3</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -10442,14 +10449,13 @@
         <v>1</v>
       </c>
       <c r="F14" s="9">
-        <v>2.269675925925926E-2</v>
+        <v>2.731481481481484E-3</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -10466,13 +10472,13 @@
         <v>1</v>
       </c>
       <c r="F15" s="9">
-        <v>2.2824074074074073E-2</v>
+        <v>2.8587962962962968E-3</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -10489,14 +10495,14 @@
         <v>1</v>
       </c>
       <c r="F16" s="9">
-        <v>2.2858796296296297E-2</v>
+        <v>2.893518518518521E-3</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -10513,14 +10519,14 @@
         <v>1</v>
       </c>
       <c r="F17" s="9">
-        <v>2.3020833333333334E-2</v>
+        <v>3.0555555555555579E-3</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -10537,13 +10543,13 @@
         <v>1</v>
       </c>
       <c r="F18" s="9">
-        <v>2.3067129629629628E-2</v>
+        <v>3.1018518518518522E-3</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -10560,13 +10566,13 @@
         <v>1</v>
       </c>
       <c r="F19" s="9">
-        <v>2.3090277777777779E-2</v>
+        <v>3.1250000000000028E-3</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -10583,14 +10589,14 @@
         <v>2</v>
       </c>
       <c r="F20" s="9">
-        <v>2.34375E-2</v>
+        <v>3.4722222222222238E-3</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -10607,14 +10613,13 @@
         <v>2</v>
       </c>
       <c r="F21" s="9">
-        <v>2.3564814814814816E-2</v>
+        <v>3.59953703703704E-3</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
@@ -10631,13 +10636,13 @@
         <v>2</v>
       </c>
       <c r="F22" s="9">
-        <v>2.3599537037037037E-2</v>
+        <v>3.6342592592592607E-3</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
@@ -10654,13 +10659,13 @@
         <v>2</v>
       </c>
       <c r="F23" s="9">
-        <v>2.3784722222222221E-2</v>
+        <v>3.8194444444444448E-3</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -10677,13 +10682,13 @@
         <v>2</v>
       </c>
       <c r="F24" s="9">
-        <v>2.4467592592592593E-2</v>
+        <v>4.5023148148148166E-3</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
@@ -10700,13 +10705,13 @@
         <v>3</v>
       </c>
       <c r="F25" s="9">
-        <v>2.5011574074074075E-2</v>
+        <v>5.0462962962962987E-3</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>57</v>
       </c>
@@ -10723,14 +10728,13 @@
         <v>3</v>
       </c>
       <c r="F26" s="9">
-        <v>2.5127314814814814E-2</v>
+        <v>5.1620370370370379E-3</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -10747,13 +10751,13 @@
         <v>3</v>
       </c>
       <c r="F27" s="9">
-        <v>2.5624999999999998E-2</v>
+        <v>5.6597222222222222E-3</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -10770,13 +10774,13 @@
         <v>3</v>
       </c>
       <c r="F28" s="9">
-        <v>2.582175925925926E-2</v>
+        <v>5.8564814814814833E-3</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -10793,13 +10797,13 @@
         <v>3</v>
       </c>
       <c r="F29" s="9">
-        <v>2.5879629629629631E-2</v>
+        <v>5.9143518518518547E-3</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -10816,13 +10820,13 @@
         <v>3</v>
       </c>
       <c r="F30" s="9">
-        <v>2.5902777777777778E-2</v>
+        <v>5.9375000000000018E-3</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -10839,13 +10843,13 @@
         <v>3</v>
       </c>
       <c r="F31" s="9">
-        <v>2.6030092592592594E-2</v>
+        <v>6.064814814814818E-3</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -10862,13 +10866,13 @@
         <v>3</v>
       </c>
       <c r="F32" s="9">
-        <v>2.6249999999999999E-2</v>
+        <v>6.2847222222222228E-3</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -10885,13 +10889,13 @@
         <v>3</v>
       </c>
       <c r="F33" s="9">
-        <v>2.6365740740740742E-2</v>
+        <v>6.4004629629629654E-3</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -10908,14 +10912,13 @@
         <v>3</v>
       </c>
       <c r="F34" s="9">
-        <v>2.6469907407407407E-2</v>
+        <v>6.504629629629631E-3</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -10932,13 +10935,13 @@
         <v>4</v>
       </c>
       <c r="F35" s="9">
-        <v>2.6550925925925926E-2</v>
+        <v>6.5856481481481495E-3</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>69</v>
       </c>
@@ -10955,13 +10958,13 @@
         <v>4</v>
       </c>
       <c r="F36" s="9">
-        <v>2.6655092592592591E-2</v>
+        <v>6.6898148148148151E-3</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
@@ -10978,13 +10981,13 @@
         <v>4</v>
       </c>
       <c r="F37" s="9">
-        <v>2.6793981481481481E-2</v>
+        <v>6.8287037037037049E-3</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>71</v>
       </c>
@@ -11001,13 +11004,13 @@
         <v>4</v>
       </c>
       <c r="F38" s="9">
-        <v>2.6886574074074073E-2</v>
+        <v>6.9212962962962969E-3</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>72</v>
       </c>
@@ -11024,13 +11027,13 @@
         <v>4</v>
       </c>
       <c r="F39" s="9">
-        <v>2.6944444444444444E-2</v>
+        <v>6.9791666666666682E-3</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>74</v>
       </c>
@@ -11047,13 +11050,13 @@
         <v>4</v>
       </c>
       <c r="F40" s="9">
-        <v>2.7083333333333334E-2</v>
+        <v>7.118055555555558E-3</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>75</v>
       </c>
@@ -11070,13 +11073,13 @@
         <v>4</v>
       </c>
       <c r="F41" s="9">
-        <v>2.7291666666666665E-2</v>
+        <v>7.3263888888888892E-3</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>76</v>
       </c>
@@ -11093,13 +11096,13 @@
         <v>4</v>
       </c>
       <c r="F42" s="9">
-        <v>2.7407407407407408E-2</v>
+        <v>7.4421296296296319E-3</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>77</v>
       </c>
@@ -11116,13 +11119,13 @@
         <v>4</v>
       </c>
       <c r="F43" s="9">
-        <v>2.7592592592592592E-2</v>
+        <v>7.6273148148148159E-3</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>78</v>
       </c>
@@ -11139,13 +11142,13 @@
         <v>4</v>
       </c>
       <c r="F44" s="9">
-        <v>2.7650462962962963E-2</v>
+        <v>7.6851851851851873E-3</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>79</v>
       </c>
@@ -11162,13 +11165,13 @@
         <v>4</v>
       </c>
       <c r="F45" s="9">
-        <v>2.7743055555555556E-2</v>
+        <v>7.7777777777777793E-3</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>80</v>
       </c>
@@ -11185,13 +11188,13 @@
         <v>5</v>
       </c>
       <c r="F46" s="9">
-        <v>2.7893518518518519E-2</v>
+        <v>7.9282407407407426E-3</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>81</v>
       </c>
@@ -11208,13 +11211,13 @@
         <v>5</v>
       </c>
       <c r="F47" s="9">
-        <v>2.7997685185185184E-2</v>
+        <v>8.0324074074074082E-3</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>82</v>
       </c>
@@ -11231,14 +11234,13 @@
         <v>5</v>
       </c>
       <c r="F48" s="9">
-        <v>2.8159722222222221E-2</v>
+        <v>8.1944444444444452E-3</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>85</v>
       </c>
@@ -11255,13 +11257,13 @@
         <v>5</v>
       </c>
       <c r="F49" s="9">
-        <v>2.8541666666666667E-2</v>
+        <v>8.5763888888888903E-3</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>87</v>
       </c>
@@ -11278,13 +11280,13 @@
         <v>5</v>
       </c>
       <c r="F50" s="9">
-        <v>2.8715277777777777E-2</v>
+        <v>8.7500000000000008E-3</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
@@ -11301,13 +11303,13 @@
         <v>5</v>
       </c>
       <c r="F51" s="9">
-        <v>2.8784722222222222E-2</v>
+        <v>8.8194444444444457E-3</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>89</v>
       </c>
@@ -11324,13 +11326,13 @@
         <v>5</v>
       </c>
       <c r="F52" s="9">
-        <v>2.8842592592592593E-2</v>
+        <v>8.877314814814817E-3</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>90</v>
       </c>
@@ -11347,13 +11349,13 @@
         <v>5</v>
       </c>
       <c r="F53" s="9">
-        <v>2.886574074074074E-2</v>
+        <v>8.9004629629629642E-3</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>91</v>
       </c>
@@ -11370,13 +11372,13 @@
         <v>5</v>
       </c>
       <c r="F54" s="9">
-        <v>2.8946759259259259E-2</v>
+        <v>8.9814814814814826E-3</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>92</v>
       </c>
@@ -11393,13 +11395,13 @@
         <v>5</v>
       </c>
       <c r="F55" s="9">
-        <v>2.900462962962963E-2</v>
+        <v>9.039351851851854E-3</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>93</v>
       </c>
@@ -11416,13 +11418,13 @@
         <v>5</v>
       </c>
       <c r="F56" s="9">
-        <v>2.9050925925925924E-2</v>
+        <v>9.0856481481481483E-3</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>94</v>
       </c>
@@ -11439,13 +11441,13 @@
         <v>5</v>
       </c>
       <c r="F57" s="9">
-        <v>2.9189814814814814E-2</v>
+        <v>9.224537037037038E-3</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>95</v>
       </c>
@@ -11462,13 +11464,13 @@
         <v>5</v>
       </c>
       <c r="F58" s="9">
-        <v>2.9282407407407406E-2</v>
+        <v>9.3171296296296301E-3</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>96</v>
       </c>
@@ -11485,13 +11487,13 @@
         <v>5</v>
       </c>
       <c r="F59" s="9">
-        <v>2.9386574074074075E-2</v>
+        <v>9.4212962962962991E-3</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>97</v>
       </c>
@@ -11508,13 +11510,13 @@
         <v>5</v>
       </c>
       <c r="F60" s="9">
-        <v>2.9525462962962962E-2</v>
+        <v>9.5601851851851855E-3</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>100</v>
       </c>
@@ -11531,15 +11533,14 @@
         <v>5</v>
       </c>
       <c r="F61" s="9">
-        <v>2.9768518518518517E-2</v>
+        <v>9.8032407407407408E-3</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H61" s="1"/>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>102</v>
       </c>
@@ -11556,13 +11557,13 @@
         <v>5</v>
       </c>
       <c r="F62" s="9">
-        <v>2.9953703703703705E-2</v>
+        <v>9.9884259259259284E-3</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>103</v>
       </c>
@@ -11579,13 +11580,13 @@
         <v>6</v>
       </c>
       <c r="F63" s="9">
-        <v>3.037037037037037E-2</v>
+        <v>1.0405092592592594E-2</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>104</v>
       </c>
@@ -11602,13 +11603,13 @@
         <v>6</v>
       </c>
       <c r="F64" s="9">
-        <v>3.0555555555555555E-2</v>
+        <v>1.0590277777777778E-2</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>105</v>
       </c>
@@ -11625,14 +11626,13 @@
         <v>6</v>
       </c>
       <c r="F65" s="9">
-        <v>3.0775462962962963E-2</v>
+        <v>1.0810185185185187E-2</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>107</v>
       </c>
@@ -11649,13 +11649,13 @@
         <v>6</v>
       </c>
       <c r="F66" s="9">
-        <v>3.1006944444444445E-2</v>
+        <v>1.1041666666666668E-2</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>108</v>
       </c>
@@ -11672,13 +11672,13 @@
         <v>6</v>
       </c>
       <c r="F67" s="9">
-        <v>3.125E-2</v>
+        <v>1.1284722222222224E-2</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>109</v>
       </c>
@@ -11695,14 +11695,13 @@
         <v>6</v>
       </c>
       <c r="F68" s="9">
-        <v>3.1296296296296294E-2</v>
+        <v>1.1331018518518518E-2</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>110</v>
       </c>
@@ -11719,13 +11718,13 @@
         <v>6</v>
       </c>
       <c r="F69" s="9">
-        <v>3.1365740740740743E-2</v>
+        <v>1.1400462962962966E-2</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>111</v>
       </c>
@@ -11742,13 +11741,13 @@
         <v>6</v>
       </c>
       <c r="F70" s="9">
-        <v>3.1458333333333331E-2</v>
+        <v>1.1493055555555555E-2</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>112</v>
       </c>
@@ -11765,13 +11764,13 @@
         <v>6</v>
       </c>
       <c r="F71" s="9">
-        <v>3.15625E-2</v>
+        <v>1.1597222222222224E-2</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>113</v>
       </c>
@@ -11788,13 +11787,13 @@
         <v>6</v>
       </c>
       <c r="F72" s="9">
-        <v>3.1608796296296295E-2</v>
+        <v>1.1643518518518518E-2</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>114</v>
       </c>
@@ -11811,13 +11810,13 @@
         <v>6</v>
       </c>
       <c r="F73" s="9">
-        <v>3.1643518518518515E-2</v>
+        <v>1.1678240740740739E-2</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>115</v>
       </c>
@@ -11834,14 +11833,13 @@
         <v>6</v>
       </c>
       <c r="F74" s="9">
-        <v>3.170138888888889E-2</v>
+        <v>1.1736111111111114E-2</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H74" s="1"/>
-    </row>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>117</v>
       </c>
@@ -11858,13 +11856,13 @@
         <v>6</v>
       </c>
       <c r="F75" s="9">
-        <v>3.184027777777778E-2</v>
+        <v>1.1875000000000004E-2</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>118</v>
       </c>
@@ -11881,13 +11879,13 @@
         <v>6</v>
       </c>
       <c r="F76" s="9">
-        <v>3.1921296296296295E-2</v>
+        <v>1.1956018518518519E-2</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>119</v>
       </c>
@@ -11904,13 +11902,13 @@
         <v>6</v>
       </c>
       <c r="F77" s="9">
-        <v>3.2025462962962964E-2</v>
+        <v>1.2060185185185188E-2</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>120</v>
       </c>
@@ -11927,14 +11925,13 @@
         <v>6</v>
       </c>
       <c r="F78" s="9">
-        <v>3.2222222222222222E-2</v>
+        <v>1.2256944444444445E-2</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H78" s="1"/>
-    </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>123</v>
       </c>
@@ -11951,13 +11948,13 @@
         <v>6</v>
       </c>
       <c r="F79" s="9">
-        <v>3.2418981481481479E-2</v>
+        <v>1.2453703703703703E-2</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>124</v>
       </c>
@@ -11974,13 +11971,13 @@
         <v>6</v>
       </c>
       <c r="F80" s="9">
-        <v>3.2627314814814817E-2</v>
+        <v>1.2662037037037041E-2</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>125</v>
       </c>
@@ -11997,13 +11994,13 @@
         <v>6</v>
       </c>
       <c r="F81" s="9">
-        <v>3.2789351851851854E-2</v>
+        <v>1.2824074074074078E-2</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>126</v>
       </c>
@@ -12020,13 +12017,13 @@
         <v>6</v>
       </c>
       <c r="F82" s="9">
-        <v>3.2974537037037038E-2</v>
+        <v>1.3009259259259262E-2</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>127</v>
       </c>
@@ -12043,13 +12040,13 @@
         <v>6</v>
       </c>
       <c r="F83" s="9">
-        <v>3.3101851851851855E-2</v>
+        <v>1.3136574074074078E-2</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>128</v>
       </c>
@@ -12066,13 +12063,13 @@
         <v>6</v>
       </c>
       <c r="F84" s="9">
-        <v>3.3171296296296296E-2</v>
+        <v>1.320601851851852E-2</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>129</v>
       </c>
@@ -12089,13 +12086,13 @@
         <v>6</v>
       </c>
       <c r="F85" s="9">
-        <v>3.3194444444444443E-2</v>
+        <v>1.3229166666666667E-2</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>131</v>
       </c>
@@ -12112,13 +12109,13 @@
         <v>6</v>
       </c>
       <c r="F86" s="9">
-        <v>3.3437500000000002E-2</v>
+        <v>1.3472222222222226E-2</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>132</v>
       </c>
@@ -12135,13 +12132,13 @@
         <v>6</v>
       </c>
       <c r="F87" s="9">
-        <v>3.3530092592592591E-2</v>
+        <v>1.3564814814814814E-2</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>133</v>
       </c>
@@ -12158,14 +12155,13 @@
         <v>6</v>
       </c>
       <c r="F88" s="9">
-        <v>3.3657407407407407E-2</v>
+        <v>1.369212962962963E-2</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H88" s="1"/>
-    </row>
-    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>135</v>
       </c>
@@ -12182,13 +12178,13 @@
         <v>6</v>
       </c>
       <c r="F89" s="9">
-        <v>3.3715277777777775E-2</v>
+        <v>1.3749999999999998E-2</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>136</v>
       </c>
@@ -12205,13 +12201,13 @@
         <v>6</v>
       </c>
       <c r="F90" s="9">
-        <v>3.3900462962962966E-2</v>
+        <v>1.3935185185185189E-2</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>137</v>
       </c>
@@ -12228,14 +12224,13 @@
         <v>6</v>
       </c>
       <c r="F91" s="9">
-        <v>3.4027777777777775E-2</v>
+        <v>1.4062499999999999E-2</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>139</v>
       </c>
@@ -12252,13 +12247,13 @@
         <v>6</v>
       </c>
       <c r="F92" s="9">
-        <v>3.4074074074074076E-2</v>
+        <v>1.41087962962963E-2</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>140</v>
       </c>
@@ -12275,13 +12270,13 @@
         <v>6</v>
       </c>
       <c r="F93" s="9">
-        <v>3.4097222222222223E-2</v>
+        <v>1.4131944444444447E-2</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>141</v>
       </c>
@@ -12298,13 +12293,13 @@
         <v>6</v>
       </c>
       <c r="F94" s="9">
-        <v>3.4224537037037039E-2</v>
+        <v>1.4259259259259263E-2</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>142</v>
       </c>
@@ -12321,13 +12316,13 @@
         <v>6</v>
       </c>
       <c r="F95" s="9">
-        <v>3.4305555555555554E-2</v>
+        <v>1.4340277777777778E-2</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>143</v>
       </c>
@@ -12344,13 +12339,13 @@
         <v>6</v>
       </c>
       <c r="F96" s="9">
-        <v>3.4375000000000003E-2</v>
+        <v>1.4409722222222227E-2</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>144</v>
       </c>
@@ -12367,13 +12362,13 @@
         <v>6</v>
       </c>
       <c r="F97" s="9">
-        <v>3.4444444444444444E-2</v>
+        <v>1.4479166666666668E-2</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>145</v>
       </c>
@@ -12390,14 +12385,13 @@
         <v>6</v>
       </c>
       <c r="F98" s="9">
-        <v>3.4513888888888886E-2</v>
+        <v>1.4548611111111109E-2</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H98" s="1"/>
-    </row>
-    <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>146</v>
       </c>
@@ -12414,13 +12408,13 @@
         <v>6</v>
       </c>
       <c r="F99" s="9">
-        <v>3.4733796296296297E-2</v>
+        <v>1.4768518518518521E-2</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>147</v>
       </c>
@@ -12437,13 +12431,13 @@
         <v>6</v>
       </c>
       <c r="F100" s="9">
-        <v>3.4791666666666665E-2</v>
+        <v>1.4826388888888889E-2</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>148</v>
       </c>
@@ -12460,13 +12454,13 @@
         <v>6</v>
       </c>
       <c r="F101" s="9">
-        <v>3.4872685185185187E-2</v>
+        <v>1.4907407407407411E-2</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>149</v>
       </c>
@@ -12483,13 +12477,13 @@
         <v>6</v>
       </c>
       <c r="F102" s="9">
-        <v>3.4976851851851849E-2</v>
+        <v>1.5011574074074073E-2</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>150</v>
       </c>
@@ -12506,13 +12500,13 @@
         <v>6</v>
       </c>
       <c r="F103" s="9">
-        <v>3.5081018518518518E-2</v>
+        <v>1.5115740740740742E-2</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>151</v>
       </c>
@@ -12529,14 +12523,14 @@
         <v>6</v>
       </c>
       <c r="F104" s="9">
-        <v>3.6296296296296299E-2</v>
+        <v>1.6331018518518522E-2</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K104" s="3"/>
-    </row>
-    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J104" s="3"/>
+    </row>
+    <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>155</v>
       </c>
@@ -12553,13 +12547,13 @@
         <v>6</v>
       </c>
       <c r="F105" s="9">
-        <v>3.6793981481481483E-2</v>
+        <v>1.6828703703703707E-2</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>156</v>
       </c>
@@ -12576,13 +12570,13 @@
         <v>6</v>
       </c>
       <c r="F106" s="9">
-        <v>3.6909722222222219E-2</v>
+        <v>1.6944444444444443E-2</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>157</v>
       </c>
@@ -12599,13 +12593,13 @@
         <v>6</v>
       </c>
       <c r="F107" s="9">
-        <v>3.7083333333333336E-2</v>
+        <v>1.711805555555556E-2</v>
       </c>
       <c r="G107" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>158</v>
       </c>
@@ -12622,13 +12616,13 @@
         <v>6</v>
       </c>
       <c r="F108" s="9">
-        <v>3.7627314814814815E-2</v>
+        <v>1.7662037037037039E-2</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>159</v>
       </c>
@@ -12645,13 +12639,13 @@
         <v>6</v>
       </c>
       <c r="F109" s="9">
-        <v>3.7800925925925925E-2</v>
+        <v>1.7835648148148149E-2</v>
       </c>
       <c r="G109" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>160</v>
       </c>
@@ -12668,13 +12662,13 @@
         <v>6</v>
       </c>
       <c r="F110" s="9">
-        <v>3.7962962962962962E-2</v>
+        <v>1.7997685185185186E-2</v>
       </c>
       <c r="G110" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>161</v>
       </c>
@@ -12691,13 +12685,13 @@
         <v>6</v>
       </c>
       <c r="F111" s="9">
-        <v>3.8124999999999999E-2</v>
+        <v>1.8159722222222223E-2</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>162</v>
       </c>
@@ -12714,7 +12708,7 @@
         <v>6</v>
       </c>
       <c r="F112" s="9">
-        <v>3.8263888888888889E-2</v>
+        <v>1.8298611111111113E-2</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>13</v>
@@ -12737,7 +12731,7 @@
         <v>6</v>
       </c>
       <c r="F113" s="9">
-        <v>3.8391203703703705E-2</v>
+        <v>1.8425925925925929E-2</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>13</v>
@@ -12760,880 +12754,880 @@
         <v>6</v>
       </c>
       <c r="F114" s="9">
-        <v>3.8437499999999999E-2</v>
+        <v>1.8472222222222223E-2</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -13647,18 +13641,18 @@
   </sheetPr>
   <dimension ref="A1:F965"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView zoomScale="89" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="109.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="6" customWidth="1"/>
-    <col min="6" max="23" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="109.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="6" customWidth="1"/>
+    <col min="6" max="23" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15306,874 +15300,874 @@
       <c r="D97" s="5"/>
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/stationarity_test/KLDivergenceTest/FeedbackLog/p6-faa-0ms.xlsx
+++ b/stationarity_test/KLDivergenceTest/FeedbackLog/p6-faa-0ms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanadsaha92/Desktop/Research_Experiments/imMens-Interactions/stationarity_test/KLDivergenceTest/FeedbackLog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F90AC5-C099-5240-A61A-4D280C36E505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C2C063-D340-A64E-A0D1-9DEE4AAF2A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -610,16 +610,19 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -10115,8 +10118,8 @@
   </sheetPr>
   <dimension ref="A1:J982"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="108" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10159,7 +10162,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>171</v>
@@ -10183,7 +10186,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>171</v>
@@ -10206,7 +10209,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>171</v>
@@ -10229,7 +10232,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="5">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>171</v>
@@ -10252,7 +10255,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>174</v>
@@ -10275,7 +10278,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>174</v>
@@ -10298,7 +10301,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>173</v>
@@ -10322,7 +10325,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>173</v>
@@ -10345,7 +10348,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="5">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>173</v>
@@ -10368,7 +10371,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>173</v>
@@ -10391,7 +10394,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>173</v>
@@ -10414,7 +10417,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>173</v>
@@ -10437,7 +10440,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>171</v>
@@ -10460,7 +10463,7 @@
         <v>30</v>
       </c>
       <c r="B15" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>171</v>
@@ -10531,7 +10534,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>171</v>
@@ -10554,7 +10557,7 @@
         <v>37</v>
       </c>
       <c r="B19" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>171</v>
@@ -10577,7 +10580,7 @@
         <v>41</v>
       </c>
       <c r="B20" s="5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>172</v>
@@ -10601,7 +10604,7 @@
         <v>43</v>
       </c>
       <c r="B21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>176</v>
@@ -10624,7 +10627,7 @@
         <v>46</v>
       </c>
       <c r="B22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>176</v>
@@ -10670,7 +10673,7 @@
         <v>51</v>
       </c>
       <c r="B24" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>174</v>
@@ -10693,7 +10696,7 @@
         <v>56</v>
       </c>
       <c r="B25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>179</v>
@@ -10716,7 +10719,7 @@
         <v>57</v>
       </c>
       <c r="B26" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>176</v>
@@ -10739,7 +10742,7 @@
         <v>59</v>
       </c>
       <c r="B27" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>176</v>
@@ -10762,7 +10765,7 @@
         <v>60</v>
       </c>
       <c r="B28" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>176</v>
@@ -10785,7 +10788,7 @@
         <v>61</v>
       </c>
       <c r="B29" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>176</v>
@@ -10808,7 +10811,7 @@
         <v>62</v>
       </c>
       <c r="B30" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>176</v>
@@ -10831,7 +10834,7 @@
         <v>63</v>
       </c>
       <c r="B31" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>176</v>
@@ -10854,7 +10857,7 @@
         <v>64</v>
       </c>
       <c r="B32" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>176</v>
@@ -10923,7 +10926,7 @@
         <v>68</v>
       </c>
       <c r="B35" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>179</v>
@@ -10946,7 +10949,7 @@
         <v>69</v>
       </c>
       <c r="B36" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>179</v>
@@ -10969,7 +10972,7 @@
         <v>70</v>
       </c>
       <c r="B37" s="5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>179</v>
@@ -10992,7 +10995,7 @@
         <v>71</v>
       </c>
       <c r="B38" s="5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>179</v>
@@ -11015,7 +11018,7 @@
         <v>72</v>
       </c>
       <c r="B39" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>179</v>
@@ -11038,7 +11041,7 @@
         <v>74</v>
       </c>
       <c r="B40" s="5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>179</v>
@@ -11061,7 +11064,7 @@
         <v>75</v>
       </c>
       <c r="B41" s="5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>180</v>
@@ -11084,7 +11087,7 @@
         <v>76</v>
       </c>
       <c r="B42" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>180</v>
@@ -11107,7 +11110,7 @@
         <v>77</v>
       </c>
       <c r="B43" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>180</v>
@@ -11130,7 +11133,7 @@
         <v>78</v>
       </c>
       <c r="B44" s="5">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>180</v>
@@ -11153,7 +11156,7 @@
         <v>79</v>
       </c>
       <c r="B45" s="5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>180</v>
@@ -11176,7 +11179,7 @@
         <v>80</v>
       </c>
       <c r="B46" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>180</v>
@@ -11199,7 +11202,7 @@
         <v>81</v>
       </c>
       <c r="B47" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>180</v>
@@ -11222,7 +11225,7 @@
         <v>82</v>
       </c>
       <c r="B48" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>180</v>
@@ -11245,7 +11248,7 @@
         <v>85</v>
       </c>
       <c r="B49" s="5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>180</v>
@@ -11268,7 +11271,7 @@
         <v>87</v>
       </c>
       <c r="B50" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>180</v>
@@ -11291,7 +11294,7 @@
         <v>88</v>
       </c>
       <c r="B51" s="5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>180</v>
@@ -11314,7 +11317,7 @@
         <v>89</v>
       </c>
       <c r="B52" s="5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>180</v>
@@ -11337,7 +11340,7 @@
         <v>90</v>
       </c>
       <c r="B53" s="5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>180</v>
@@ -11360,7 +11363,7 @@
         <v>91</v>
       </c>
       <c r="B54" s="5">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>180</v>
@@ -11383,7 +11386,7 @@
         <v>92</v>
       </c>
       <c r="B55" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>180</v>
@@ -11406,7 +11409,7 @@
         <v>93</v>
       </c>
       <c r="B56" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>180</v>
@@ -11429,7 +11432,7 @@
         <v>94</v>
       </c>
       <c r="B57" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>180</v>
@@ -11452,7 +11455,7 @@
         <v>95</v>
       </c>
       <c r="B58" s="5">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>180</v>
@@ -11475,7 +11478,7 @@
         <v>96</v>
       </c>
       <c r="B59" s="5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>180</v>
@@ -11498,7 +11501,7 @@
         <v>97</v>
       </c>
       <c r="B60" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>180</v>
@@ -11521,7 +11524,7 @@
         <v>100</v>
       </c>
       <c r="B61" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>175</v>
@@ -11545,7 +11548,7 @@
         <v>102</v>
       </c>
       <c r="B62" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>175</v>
@@ -11568,7 +11571,7 @@
         <v>103</v>
       </c>
       <c r="B63" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>175</v>
@@ -11591,7 +11594,7 @@
         <v>104</v>
       </c>
       <c r="B64" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>175</v>
@@ -11614,7 +11617,7 @@
         <v>105</v>
       </c>
       <c r="B65" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>175</v>
@@ -11637,7 +11640,7 @@
         <v>107</v>
       </c>
       <c r="B66" s="5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>175</v>
@@ -11660,7 +11663,7 @@
         <v>108</v>
       </c>
       <c r="B67" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>175</v>
@@ -11683,7 +11686,7 @@
         <v>109</v>
       </c>
       <c r="B68" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>175</v>
@@ -11706,7 +11709,7 @@
         <v>110</v>
       </c>
       <c r="B69" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>175</v>
@@ -11729,7 +11732,7 @@
         <v>111</v>
       </c>
       <c r="B70" s="5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>174</v>
@@ -11752,7 +11755,7 @@
         <v>112</v>
       </c>
       <c r="B71" s="5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>176</v>
@@ -11775,7 +11778,7 @@
         <v>113</v>
       </c>
       <c r="B72" s="5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>176</v>
@@ -11798,7 +11801,7 @@
         <v>114</v>
       </c>
       <c r="B73" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>176</v>
@@ -11821,7 +11824,7 @@
         <v>115</v>
       </c>
       <c r="B74" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>178</v>
@@ -11844,7 +11847,7 @@
         <v>117</v>
       </c>
       <c r="B75" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>180</v>
@@ -11867,7 +11870,7 @@
         <v>118</v>
       </c>
       <c r="B76" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>180</v>
@@ -11890,7 +11893,7 @@
         <v>119</v>
       </c>
       <c r="B77" s="5">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>175</v>
@@ -11913,7 +11916,7 @@
         <v>120</v>
       </c>
       <c r="B78" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>175</v>
@@ -11936,7 +11939,7 @@
         <v>123</v>
       </c>
       <c r="B79" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>174</v>
@@ -11959,7 +11962,7 @@
         <v>124</v>
       </c>
       <c r="B80" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>174</v>
@@ -11982,7 +11985,7 @@
         <v>125</v>
       </c>
       <c r="B81" s="5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>171</v>
@@ -12005,7 +12008,7 @@
         <v>126</v>
       </c>
       <c r="B82" s="5">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>184</v>
@@ -12028,7 +12031,7 @@
         <v>127</v>
       </c>
       <c r="B83" s="5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>172</v>
@@ -12051,7 +12054,7 @@
         <v>128</v>
       </c>
       <c r="B84" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>173</v>
@@ -12074,7 +12077,7 @@
         <v>129</v>
       </c>
       <c r="B85" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>180</v>
@@ -12097,7 +12100,7 @@
         <v>131</v>
       </c>
       <c r="B86" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>180</v>
@@ -12120,7 +12123,7 @@
         <v>132</v>
       </c>
       <c r="B87" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>180</v>
@@ -12143,7 +12146,7 @@
         <v>133</v>
       </c>
       <c r="B88" s="5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>180</v>
@@ -12166,7 +12169,7 @@
         <v>135</v>
       </c>
       <c r="B89" s="5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>180</v>
@@ -12212,7 +12215,7 @@
         <v>137</v>
       </c>
       <c r="B91" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>171</v>
@@ -12235,7 +12238,7 @@
         <v>139</v>
       </c>
       <c r="B92" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>171</v>
@@ -12258,7 +12261,7 @@
         <v>140</v>
       </c>
       <c r="B93" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>171</v>
@@ -12281,7 +12284,7 @@
         <v>141</v>
       </c>
       <c r="B94" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>171</v>
@@ -12304,7 +12307,7 @@
         <v>142</v>
       </c>
       <c r="B95" s="5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>171</v>
@@ -12327,7 +12330,7 @@
         <v>143</v>
       </c>
       <c r="B96" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>180</v>
@@ -12350,7 +12353,7 @@
         <v>144</v>
       </c>
       <c r="B97" s="5">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>179</v>
@@ -12373,7 +12376,7 @@
         <v>145</v>
       </c>
       <c r="B98" s="5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>179</v>
@@ -12396,7 +12399,7 @@
         <v>146</v>
       </c>
       <c r="B99" s="5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>179</v>
@@ -12419,7 +12422,7 @@
         <v>147</v>
       </c>
       <c r="B100" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>179</v>
@@ -12442,7 +12445,7 @@
         <v>148</v>
       </c>
       <c r="B101" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>180</v>
@@ -12465,7 +12468,7 @@
         <v>149</v>
       </c>
       <c r="B102" s="5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>180</v>
@@ -12511,7 +12514,7 @@
         <v>151</v>
       </c>
       <c r="B104" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>175</v>
@@ -12535,7 +12538,7 @@
         <v>155</v>
       </c>
       <c r="B105" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>174</v>
@@ -12558,7 +12561,7 @@
         <v>156</v>
       </c>
       <c r="B106" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>174</v>
@@ -12581,7 +12584,7 @@
         <v>157</v>
       </c>
       <c r="B107" s="5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>180</v>
@@ -12627,7 +12630,7 @@
         <v>159</v>
       </c>
       <c r="B109" s="5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>171</v>
@@ -12650,7 +12653,7 @@
         <v>160</v>
       </c>
       <c r="B110" s="5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>180</v>
@@ -12673,7 +12676,7 @@
         <v>161</v>
       </c>
       <c r="B111" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>180</v>
@@ -12696,7 +12699,7 @@
         <v>162</v>
       </c>
       <c r="B112" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>180</v>
@@ -12719,7 +12722,7 @@
         <v>163</v>
       </c>
       <c r="B113" s="5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>180</v>

--- a/stationarity_test/KLDivergenceTest/FeedbackLog/p6-faa-0ms.xlsx
+++ b/stationarity_test/KLDivergenceTest/FeedbackLog/p6-faa-0ms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanadsaha92/Desktop/Research_Experiments/imMens-Interactions/stationarity_test/KLDivergenceTest/FeedbackLog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C2C063-D340-A64E-A0D1-9DEE4AAF2A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32118866-7B58-2F48-874C-A4E2DA7D7BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10118,8 +10118,8 @@
   </sheetPr>
   <dimension ref="A1:J982"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="108" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
